--- a/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12360"/>
+    <workbookView windowWidth="21195" windowHeight="12142"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>300000</t>
   </si>
   <si>
     <t>猎人</t>
@@ -1188,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85"/>
@@ -1217,7 +1220,7 @@
     <col min="21" max="21" width="5.24778761061947" customWidth="1"/>
     <col min="22" max="23" width="6.17699115044248" customWidth="1"/>
     <col min="24" max="24" width="5.24778761061947" customWidth="1"/>
-    <col min="25" max="25" width="2.46017699115044" customWidth="1"/>
+    <col min="25" max="25" width="7.10619469026549" customWidth="1"/>
     <col min="26" max="26" width="6.17699115044248" customWidth="1"/>
     <col min="27" max="29" width="5.24778761061947" customWidth="1"/>
     <col min="30" max="30" width="6.17699115044248" customWidth="1"/>
@@ -1802,8 +1805,8 @@
       <c r="X8" s="10">
         <v>1009</v>
       </c>
-      <c r="Y8" s="8">
-        <v>3</v>
+      <c r="Y8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z8" s="10">
         <v>10021</v>
@@ -1847,7 +1850,7 @@
         <v>45</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="4">
         <v>1010</v>
@@ -1900,8 +1903,8 @@
       <c r="X9" s="10">
         <v>1009</v>
       </c>
-      <c r="Y9" s="8">
-        <v>3</v>
+      <c r="Y9" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z9" s="10">
         <v>10021</v>
@@ -1998,8 +2001,8 @@
       <c r="X10" s="10">
         <v>1009</v>
       </c>
-      <c r="Y10" s="8">
-        <v>3</v>
+      <c r="Y10" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z10" s="10">
         <v>10021</v>
@@ -2043,7 +2046,7 @@
         <v>45</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" s="4">
         <v>1010</v>
@@ -2096,8 +2099,8 @@
       <c r="X11" s="10">
         <v>1009</v>
       </c>
-      <c r="Y11" s="8">
-        <v>3</v>
+      <c r="Y11" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z11" s="10">
         <v>10021</v>
@@ -2141,7 +2144,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H12" s="4">
         <v>1010</v>
@@ -2194,8 +2197,8 @@
       <c r="X12" s="10">
         <v>1009</v>
       </c>
-      <c r="Y12" s="8">
-        <v>3</v>
+      <c r="Y12" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z12" s="10">
         <v>10021</v>
@@ -2230,16 +2233,16 @@
         <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H13" s="4">
         <v>1010</v>
@@ -2292,8 +2295,8 @@
       <c r="X13" s="10">
         <v>1009</v>
       </c>
-      <c r="Y13" s="8">
-        <v>3</v>
+      <c r="Y13" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z13" s="10">
         <v>10021</v>
@@ -2328,16 +2331,16 @@
         <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="4">
         <v>1010</v>
@@ -2390,8 +2393,8 @@
       <c r="X14" s="10">
         <v>1009</v>
       </c>
-      <c r="Y14" s="8">
-        <v>3</v>
+      <c r="Y14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z14" s="10">
         <v>10021</v>
@@ -2426,16 +2429,16 @@
         <v>42</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H15" s="4">
         <v>1010</v>
@@ -2488,8 +2491,8 @@
       <c r="X15" s="10">
         <v>1009</v>
       </c>
-      <c r="Y15" s="8">
-        <v>3</v>
+      <c r="Y15" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z15" s="10">
         <v>10021</v>
@@ -2524,16 +2527,16 @@
         <v>42</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H16" s="4">
         <v>1010</v>
@@ -2586,8 +2589,8 @@
       <c r="X16" s="10">
         <v>1009</v>
       </c>
-      <c r="Y16" s="8">
-        <v>3</v>
+      <c r="Y16" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z16" s="10">
         <v>10021</v>
@@ -2622,16 +2625,16 @@
         <v>42</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="4">
         <v>1010</v>
@@ -2684,8 +2687,8 @@
       <c r="X17" s="10">
         <v>1009</v>
       </c>
-      <c r="Y17" s="8">
-        <v>3</v>
+      <c r="Y17" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="Z17" s="10">
         <v>10021</v>

--- a/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2FDAE1-7054-5C48-B972-1CCD0C4D8EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99876536-66FE-0F46-9375-7A65C57400E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="4160" windowWidth="32220" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -219,6 +219,22 @@
   </si>
   <si>
     <t>Player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所在地图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -602,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AH17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -614,33 +630,34 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" customWidth="1"/>
-    <col min="12" max="12" width="5.1640625" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" customWidth="1"/>
-    <col min="15" max="15" width="5.1640625" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" customWidth="1"/>
-    <col min="18" max="18" width="6.1640625" customWidth="1"/>
-    <col min="19" max="19" width="7.1640625" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" customWidth="1"/>
-    <col min="21" max="21" width="5.1640625" customWidth="1"/>
-    <col min="22" max="23" width="6.1640625" customWidth="1"/>
-    <col min="24" max="24" width="5.1640625" customWidth="1"/>
-    <col min="25" max="25" width="7.1640625" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" customWidth="1"/>
-    <col min="27" max="29" width="5.1640625" customWidth="1"/>
-    <col min="30" max="30" width="6.1640625" customWidth="1"/>
-    <col min="31" max="33" width="5.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.1640625" customWidth="1"/>
+    <col min="11" max="11" width="5.1640625" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="5.1640625" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="6.1640625" customWidth="1"/>
+    <col min="16" max="16" width="5.1640625" customWidth="1"/>
+    <col min="17" max="17" width="6.1640625" customWidth="1"/>
+    <col min="18" max="18" width="5.1640625" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" customWidth="1"/>
+    <col min="20" max="20" width="7.1640625" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" customWidth="1"/>
+    <col min="22" max="22" width="5.1640625" customWidth="1"/>
+    <col min="23" max="24" width="6.1640625" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" customWidth="1"/>
+    <col min="28" max="30" width="5.1640625" customWidth="1"/>
+    <col min="31" max="31" width="6.1640625" customWidth="1"/>
+    <col min="32" max="34" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:34">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -653,17 +670,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
@@ -688,8 +707,9 @@
       <c r="AE1" s="8"/>
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -702,17 +722,19 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -737,8 +759,9 @@
       <c r="AE2" s="8"/>
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -746,14 +769,14 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -778,8 +801,9 @@
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -793,68 +817,71 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9"/>
+      <c r="K4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="10"/>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="9"/>
+      <c r="S4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="11"/>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="11"/>
+      <c r="U4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="12"/>
-      <c r="V4" s="10" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="11"/>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="11"/>
+      <c r="Y4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="9" t="s">
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:34">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
@@ -864,95 +891,96 @@
       <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1010</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>29000</v>
       </c>
-      <c r="L5" s="6">
+      <c r="M5" s="6">
         <v>1012</v>
       </c>
-      <c r="M5" s="5">
+      <c r="N5" s="5">
         <v>-136000</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="6">
         <v>10001</v>
       </c>
-      <c r="O5" s="5">
+      <c r="P5" s="5">
         <v>6000</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <v>10051</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="R5" s="5">
         <v>500</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>10061</v>
       </c>
-      <c r="S5" s="5">
+      <c r="T5" s="5">
         <v>100000</v>
       </c>
-      <c r="T5" s="7">
+      <c r="U5" s="7">
         <v>10071</v>
       </c>
-      <c r="U5" s="5">
+      <c r="V5" s="5">
         <v>1780</v>
       </c>
-      <c r="V5" s="7">
+      <c r="W5" s="7">
         <v>10081</v>
       </c>
-      <c r="W5" s="5">
+      <c r="X5" s="5">
         <v>68000</v>
       </c>
-      <c r="X5" s="7">
+      <c r="Y5" s="7">
         <v>1009</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="AA5" s="7">
         <v>10021</v>
       </c>
-      <c r="AA5" s="5">
+      <c r="AB5" s="5">
         <v>1000</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AC5" s="7">
         <v>1001</v>
       </c>
-      <c r="AC5" s="5">
+      <c r="AD5" s="5">
         <v>1000</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AE5" s="7">
         <v>10041</v>
       </c>
-      <c r="AE5" s="5">
+      <c r="AF5" s="5">
         <v>1000</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AG5" s="7">
         <v>1003</v>
       </c>
-      <c r="AG5" s="5">
+      <c r="AH5" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:34">
       <c r="B6" s="2">
         <v>1002</v>
       </c>
@@ -962,95 +990,98 @@
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>1010</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>56000</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>30000</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>1012</v>
       </c>
-      <c r="M6" s="5">
+      <c r="N6" s="5">
         <v>-138000</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>10001</v>
       </c>
-      <c r="O6" s="5">
+      <c r="P6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <v>10051</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="R6" s="5">
         <v>500</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>10061</v>
       </c>
-      <c r="S6" s="5">
+      <c r="T6" s="5">
         <v>0</v>
       </c>
-      <c r="T6" s="7">
+      <c r="U6" s="7">
         <v>10071</v>
       </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
         <v>500</v>
       </c>
-      <c r="V6" s="7">
+      <c r="W6" s="7">
         <v>10081</v>
       </c>
-      <c r="W6" s="5">
+      <c r="X6" s="5">
         <v>30000</v>
       </c>
-      <c r="X6" s="7">
+      <c r="Y6" s="7">
         <v>1009</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Z6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="7">
+      <c r="AA6" s="7">
         <v>10021</v>
       </c>
-      <c r="AA6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB6" s="7">
+      <c r="AB6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC6" s="7">
         <v>1001</v>
       </c>
-      <c r="AC6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD6" s="7">
+      <c r="AD6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="7">
         <v>10041</v>
       </c>
-      <c r="AE6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF6" s="7">
+      <c r="AF6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="7">
         <v>1003</v>
       </c>
-      <c r="AG6" s="5">
+      <c r="AH6" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:34">
       <c r="B7" s="2">
         <v>1003</v>
       </c>
@@ -1060,95 +1091,98 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1010</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>58740</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>29090</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>1012</v>
       </c>
-      <c r="M7" s="5">
+      <c r="N7" s="5">
         <v>-148001</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>10001</v>
       </c>
-      <c r="O7" s="5">
+      <c r="P7" s="5">
         <v>0</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <v>10051</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="R7" s="5">
         <v>500</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>10061</v>
       </c>
-      <c r="S7" s="5">
+      <c r="T7" s="5">
         <v>0</v>
       </c>
-      <c r="T7" s="7">
+      <c r="U7" s="7">
         <v>10071</v>
       </c>
-      <c r="U7" s="5">
+      <c r="V7" s="5">
         <v>500</v>
       </c>
-      <c r="V7" s="7">
+      <c r="W7" s="7">
         <v>10081</v>
       </c>
-      <c r="W7" s="5">
+      <c r="X7" s="5">
         <v>30000</v>
       </c>
-      <c r="X7" s="7">
+      <c r="Y7" s="7">
         <v>1009</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Z7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="7">
+      <c r="AA7" s="7">
         <v>10021</v>
       </c>
-      <c r="AA7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB7" s="7">
+      <c r="AB7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="7">
         <v>1001</v>
       </c>
-      <c r="AC7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD7" s="7">
+      <c r="AD7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="7">
         <v>10041</v>
       </c>
-      <c r="AE7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF7" s="7">
+      <c r="AF7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG7" s="7">
         <v>1003</v>
       </c>
-      <c r="AG7" s="5">
+      <c r="AH7" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:34">
       <c r="B8" s="2">
         <v>1004</v>
       </c>
@@ -1158,95 +1192,98 @@
       <c r="D8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>1010</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>21600</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>26800</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="6">
         <v>1012</v>
       </c>
-      <c r="M8" s="5">
+      <c r="N8" s="5">
         <v>-58702</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="6">
         <v>10001</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="5">
         <v>2000</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <v>10051</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="R8" s="5">
         <v>500</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>10061</v>
       </c>
-      <c r="S8" s="5">
+      <c r="T8" s="5">
         <v>10000</v>
       </c>
-      <c r="T8" s="7">
+      <c r="U8" s="7">
         <v>10071</v>
       </c>
-      <c r="U8" s="5">
+      <c r="V8" s="5">
         <v>500</v>
       </c>
-      <c r="V8" s="7">
+      <c r="W8" s="7">
         <v>10081</v>
       </c>
-      <c r="W8" s="5">
+      <c r="X8" s="5">
         <v>30000</v>
       </c>
-      <c r="X8" s="7">
+      <c r="Y8" s="7">
         <v>1009</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Z8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z8" s="7">
+      <c r="AA8" s="7">
         <v>10021</v>
       </c>
-      <c r="AA8" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB8" s="7">
+      <c r="AB8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC8" s="7">
         <v>1001</v>
       </c>
-      <c r="AC8" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD8" s="7">
+      <c r="AD8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="7">
         <v>10041</v>
       </c>
-      <c r="AE8" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF8" s="7">
+      <c r="AF8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="7">
         <v>1003</v>
       </c>
-      <c r="AG8" s="5">
+      <c r="AH8" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:34">
       <c r="B9" s="2">
         <v>1005</v>
       </c>
@@ -1256,95 +1293,98 @@
       <c r="D9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>1010</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>56000</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="K9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>25180</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="6">
         <v>1012</v>
       </c>
-      <c r="M9" s="5">
+      <c r="N9" s="5">
         <v>-23633</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="6">
         <v>10001</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="5">
         <v>2000</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <v>10051</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="R9" s="5">
         <v>500</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>10061</v>
       </c>
-      <c r="S9" s="5">
+      <c r="T9" s="5">
         <v>10000</v>
       </c>
-      <c r="T9" s="7">
+      <c r="U9" s="7">
         <v>10071</v>
       </c>
-      <c r="U9" s="5">
+      <c r="V9" s="5">
         <v>500</v>
       </c>
-      <c r="V9" s="7">
+      <c r="W9" s="7">
         <v>10081</v>
       </c>
-      <c r="W9" s="5">
+      <c r="X9" s="5">
         <v>30000</v>
       </c>
-      <c r="X9" s="7">
+      <c r="Y9" s="7">
         <v>1009</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Z9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z9" s="7">
+      <c r="AA9" s="7">
         <v>10021</v>
       </c>
-      <c r="AA9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="7">
         <v>1001</v>
       </c>
-      <c r="AC9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD9" s="7">
+      <c r="AD9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="7">
         <v>10041</v>
       </c>
-      <c r="AE9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF9" s="7">
+      <c r="AF9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="7">
         <v>1003</v>
       </c>
-      <c r="AG9" s="5">
+      <c r="AH9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:34">
       <c r="B10" s="2">
         <v>1006</v>
       </c>
@@ -1354,95 +1394,98 @@
       <c r="D10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>1010</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>36310</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>25180</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="6">
         <v>1012</v>
       </c>
-      <c r="M10" s="5">
+      <c r="N10" s="5">
         <v>-23634</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="6">
         <v>10001</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="5">
         <v>2000</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <v>10051</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="R10" s="5">
         <v>500</v>
       </c>
-      <c r="R10" s="6">
+      <c r="S10" s="6">
         <v>10061</v>
       </c>
-      <c r="S10" s="5">
+      <c r="T10" s="5">
         <v>10000</v>
       </c>
-      <c r="T10" s="7">
+      <c r="U10" s="7">
         <v>10071</v>
       </c>
-      <c r="U10" s="5">
+      <c r="V10" s="5">
         <v>500</v>
       </c>
-      <c r="V10" s="7">
+      <c r="W10" s="7">
         <v>10081</v>
       </c>
-      <c r="W10" s="5">
+      <c r="X10" s="5">
         <v>30000</v>
       </c>
-      <c r="X10" s="7">
+      <c r="Y10" s="7">
         <v>1009</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="7">
+      <c r="AA10" s="7">
         <v>10021</v>
       </c>
-      <c r="AA10" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="7">
         <v>1001</v>
       </c>
-      <c r="AC10" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD10" s="7">
+      <c r="AD10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="7">
         <v>10041</v>
       </c>
-      <c r="AE10" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF10" s="7">
+      <c r="AF10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="7">
         <v>1003</v>
       </c>
-      <c r="AG10" s="5">
+      <c r="AH10" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:34">
       <c r="B11" s="2">
         <v>1007</v>
       </c>
@@ -1452,95 +1495,98 @@
       <c r="D11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>1010</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>67170</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>25180</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="6">
         <v>1012</v>
       </c>
-      <c r="M11" s="5">
+      <c r="N11" s="5">
         <v>-40495</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="6">
         <v>10001</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="5">
         <v>2000</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <v>10051</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="R11" s="5">
         <v>500</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <v>10061</v>
       </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
         <v>10000</v>
       </c>
-      <c r="T11" s="7">
+      <c r="U11" s="7">
         <v>10071</v>
       </c>
-      <c r="U11" s="5">
+      <c r="V11" s="5">
         <v>500</v>
       </c>
-      <c r="V11" s="7">
+      <c r="W11" s="7">
         <v>10081</v>
       </c>
-      <c r="W11" s="5">
+      <c r="X11" s="5">
         <v>30000</v>
       </c>
-      <c r="X11" s="7">
+      <c r="Y11" s="7">
         <v>1009</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Z11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z11" s="7">
+      <c r="AA11" s="7">
         <v>10021</v>
       </c>
-      <c r="AA11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB11" s="7">
+      <c r="AB11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="7">
         <v>1001</v>
       </c>
-      <c r="AC11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD11" s="7">
+      <c r="AD11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="7">
         <v>10041</v>
       </c>
-      <c r="AE11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF11" s="7">
+      <c r="AF11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="7">
         <v>1003</v>
       </c>
-      <c r="AG11" s="5">
+      <c r="AH11" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:34">
       <c r="B12" s="2">
         <v>1008</v>
       </c>
@@ -1550,95 +1596,98 @@
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>1010</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>59600</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>25800</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="6">
         <v>1012</v>
       </c>
-      <c r="M12" s="5">
+      <c r="N12" s="5">
         <v>-87866</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="6">
         <v>10001</v>
       </c>
-      <c r="O12" s="5">
+      <c r="P12" s="5">
         <v>2000</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <v>10051</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="R12" s="5">
         <v>500</v>
       </c>
-      <c r="R12" s="6">
+      <c r="S12" s="6">
         <v>10061</v>
       </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
         <v>10000</v>
       </c>
-      <c r="T12" s="7">
+      <c r="U12" s="7">
         <v>10071</v>
       </c>
-      <c r="U12" s="5">
+      <c r="V12" s="5">
         <v>500</v>
       </c>
-      <c r="V12" s="7">
+      <c r="W12" s="7">
         <v>10081</v>
       </c>
-      <c r="W12" s="5">
+      <c r="X12" s="5">
         <v>30000</v>
       </c>
-      <c r="X12" s="7">
+      <c r="Y12" s="7">
         <v>1009</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Z12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="AA12" s="7">
         <v>10021</v>
       </c>
-      <c r="AA12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB12" s="7">
+      <c r="AB12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="7">
         <v>1001</v>
       </c>
-      <c r="AC12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD12" s="7">
+      <c r="AD12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="7">
         <v>10041</v>
       </c>
-      <c r="AE12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF12" s="7">
+      <c r="AF12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="7">
         <v>1003</v>
       </c>
-      <c r="AG12" s="5">
+      <c r="AH12" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:34">
       <c r="B13" s="2">
         <v>1009</v>
       </c>
@@ -1648,95 +1697,98 @@
       <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>1010</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>58740</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>28100</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="6">
         <v>1012</v>
       </c>
-      <c r="M13" s="5">
+      <c r="N13" s="5">
         <v>-141407</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="6">
         <v>10001</v>
       </c>
-      <c r="O13" s="5">
+      <c r="P13" s="5">
         <v>2000</v>
       </c>
-      <c r="P13" s="7">
+      <c r="Q13" s="7">
         <v>10051</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="R13" s="5">
         <v>2000</v>
       </c>
-      <c r="R13" s="6">
+      <c r="S13" s="6">
         <v>10061</v>
       </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
         <v>10000</v>
       </c>
-      <c r="T13" s="7">
+      <c r="U13" s="7">
         <v>10071</v>
       </c>
-      <c r="U13" s="5">
+      <c r="V13" s="5">
         <v>500</v>
       </c>
-      <c r="V13" s="7">
+      <c r="W13" s="7">
         <v>10081</v>
       </c>
-      <c r="W13" s="5">
+      <c r="X13" s="5">
         <v>30000</v>
       </c>
-      <c r="X13" s="7">
+      <c r="Y13" s="7">
         <v>1009</v>
       </c>
-      <c r="Y13" s="5" t="s">
+      <c r="Z13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="AA13" s="7">
         <v>10021</v>
       </c>
-      <c r="AA13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB13" s="7">
+      <c r="AB13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="7">
         <v>1001</v>
       </c>
-      <c r="AC13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD13" s="7">
+      <c r="AD13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="7">
         <v>10041</v>
       </c>
-      <c r="AE13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF13" s="7">
+      <c r="AF13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="7">
         <v>1003</v>
       </c>
-      <c r="AG13" s="5">
+      <c r="AH13" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:34">
       <c r="B14" s="2">
         <v>1010</v>
       </c>
@@ -1746,95 +1798,98 @@
       <c r="D14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>1010</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>58740</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>28100</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="6">
         <v>1012</v>
       </c>
-      <c r="M14" s="5">
+      <c r="N14" s="5">
         <v>-130408</v>
       </c>
-      <c r="N14" s="6">
+      <c r="O14" s="6">
         <v>10001</v>
       </c>
-      <c r="O14" s="5">
+      <c r="P14" s="5">
         <v>2000</v>
       </c>
-      <c r="P14" s="7">
+      <c r="Q14" s="7">
         <v>10051</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="5">
         <v>2000</v>
       </c>
-      <c r="R14" s="6">
+      <c r="S14" s="6">
         <v>10061</v>
       </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
         <v>10000</v>
       </c>
-      <c r="T14" s="7">
+      <c r="U14" s="7">
         <v>10071</v>
       </c>
-      <c r="U14" s="5">
+      <c r="V14" s="5">
         <v>500</v>
       </c>
-      <c r="V14" s="7">
+      <c r="W14" s="7">
         <v>10081</v>
       </c>
-      <c r="W14" s="5">
+      <c r="X14" s="5">
         <v>30000</v>
       </c>
-      <c r="X14" s="7">
+      <c r="Y14" s="7">
         <v>1009</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Z14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z14" s="7">
+      <c r="AA14" s="7">
         <v>10021</v>
       </c>
-      <c r="AA14" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB14" s="7">
+      <c r="AB14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="7">
         <v>1001</v>
       </c>
-      <c r="AC14" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD14" s="7">
+      <c r="AD14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="7">
         <v>10041</v>
       </c>
-      <c r="AE14" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF14" s="7">
+      <c r="AF14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="7">
         <v>1003</v>
       </c>
-      <c r="AG14" s="5">
+      <c r="AH14" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:34">
       <c r="B15" s="2">
         <v>1011</v>
       </c>
@@ -1844,95 +1899,98 @@
       <c r="D15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>1010</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>67480</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>28850</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="6">
         <v>1012</v>
       </c>
-      <c r="M15" s="5">
+      <c r="N15" s="5">
         <v>-130409</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="6">
         <v>10001</v>
       </c>
-      <c r="O15" s="5">
+      <c r="P15" s="5">
         <v>2000</v>
       </c>
-      <c r="P15" s="7">
+      <c r="Q15" s="7">
         <v>10051</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="R15" s="5">
         <v>2000</v>
       </c>
-      <c r="R15" s="6">
+      <c r="S15" s="6">
         <v>10061</v>
       </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
         <v>10000</v>
       </c>
-      <c r="T15" s="7">
+      <c r="U15" s="7">
         <v>10071</v>
       </c>
-      <c r="U15" s="5">
+      <c r="V15" s="5">
         <v>500</v>
       </c>
-      <c r="V15" s="7">
+      <c r="W15" s="7">
         <v>10081</v>
       </c>
-      <c r="W15" s="5">
+      <c r="X15" s="5">
         <v>30000</v>
       </c>
-      <c r="X15" s="7">
+      <c r="Y15" s="7">
         <v>1009</v>
       </c>
-      <c r="Y15" s="5" t="s">
+      <c r="Z15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z15" s="7">
+      <c r="AA15" s="7">
         <v>10021</v>
       </c>
-      <c r="AA15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB15" s="7">
+      <c r="AB15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="7">
         <v>1001</v>
       </c>
-      <c r="AC15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD15" s="7">
+      <c r="AD15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="7">
         <v>10041</v>
       </c>
-      <c r="AE15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF15" s="7">
+      <c r="AF15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="7">
         <v>1003</v>
       </c>
-      <c r="AG15" s="5">
+      <c r="AH15" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:34">
       <c r="B16" s="2">
         <v>1012</v>
       </c>
@@ -1942,95 +2000,98 @@
       <c r="D16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>1010</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>67480</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>27510</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="6">
         <v>1012</v>
       </c>
-      <c r="M16" s="5">
+      <c r="N16" s="5">
         <v>-34791</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="6">
         <v>10001</v>
       </c>
-      <c r="O16" s="5">
+      <c r="P16" s="5">
         <v>2000</v>
       </c>
-      <c r="P16" s="7">
+      <c r="Q16" s="7">
         <v>10051</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="R16" s="5">
         <v>2000</v>
       </c>
-      <c r="R16" s="6">
+      <c r="S16" s="6">
         <v>10061</v>
       </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
         <v>10000</v>
       </c>
-      <c r="T16" s="7">
+      <c r="U16" s="7">
         <v>10071</v>
       </c>
-      <c r="U16" s="5">
+      <c r="V16" s="5">
         <v>500</v>
       </c>
-      <c r="V16" s="7">
+      <c r="W16" s="7">
         <v>10081</v>
       </c>
-      <c r="W16" s="5">
+      <c r="X16" s="5">
         <v>30000</v>
       </c>
-      <c r="X16" s="7">
+      <c r="Y16" s="7">
         <v>1009</v>
       </c>
-      <c r="Y16" s="5" t="s">
+      <c r="Z16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z16" s="7">
+      <c r="AA16" s="7">
         <v>10021</v>
       </c>
-      <c r="AA16" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB16" s="7">
+      <c r="AB16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="7">
         <v>1001</v>
       </c>
-      <c r="AC16" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD16" s="7">
+      <c r="AD16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="7">
         <v>10041</v>
       </c>
-      <c r="AE16" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF16" s="7">
+      <c r="AF16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="7">
         <v>1003</v>
       </c>
-      <c r="AG16" s="5">
+      <c r="AH16" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:33">
+    <row r="17" spans="2:34">
       <c r="B17" s="2">
         <v>1013</v>
       </c>
@@ -2040,112 +2101,115 @@
       <c r="D17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>1010</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>67480</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>25900</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="6">
         <v>1012</v>
       </c>
-      <c r="M17" s="5">
+      <c r="N17" s="5">
         <v>-93811</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="6">
         <v>10001</v>
       </c>
-      <c r="O17" s="5">
+      <c r="P17" s="5">
         <v>2000</v>
       </c>
-      <c r="P17" s="7">
+      <c r="Q17" s="7">
         <v>10051</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="R17" s="5">
         <v>2000</v>
       </c>
-      <c r="R17" s="6">
+      <c r="S17" s="6">
         <v>10061</v>
       </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
         <v>10000</v>
       </c>
-      <c r="T17" s="7">
+      <c r="U17" s="7">
         <v>10071</v>
       </c>
-      <c r="U17" s="5">
+      <c r="V17" s="5">
         <v>500</v>
       </c>
-      <c r="V17" s="7">
+      <c r="W17" s="7">
         <v>10081</v>
       </c>
-      <c r="W17" s="5">
+      <c r="X17" s="5">
         <v>30000</v>
       </c>
-      <c r="X17" s="7">
+      <c r="Y17" s="7">
         <v>1009</v>
       </c>
-      <c r="Y17" s="5" t="s">
+      <c r="Z17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Z17" s="7">
+      <c r="AA17" s="7">
         <v>10021</v>
       </c>
-      <c r="AA17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AB17" s="7">
+      <c r="AB17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="7">
         <v>1001</v>
       </c>
-      <c r="AC17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AD17" s="7">
+      <c r="AD17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="7">
         <v>10041</v>
       </c>
-      <c r="AE17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AF17" s="7">
+      <c r="AF17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="7">
         <v>1003</v>
       </c>
-      <c r="AG17" s="5">
+      <c r="AH17" s="5">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H1:AG1"/>
-    <mergeCell ref="H2:AG2"/>
-    <mergeCell ref="H3:AG3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="I1:AH1"/>
+    <mergeCell ref="I2:AH2"/>
+    <mergeCell ref="I3:AH3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99876536-66FE-0F46-9375-7A65C57400E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241DA813-B7DD-084D-AB07-D61001BFAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4160" windowWidth="32220" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -235,6 +235,18 @@
   </si>
   <si>
     <t>Map1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生面向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +285,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +310,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -311,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -343,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -618,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH17"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -640,24 +661,26 @@
     <col min="12" max="12" width="6.1640625" customWidth="1"/>
     <col min="13" max="13" width="5.1640625" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="6.1640625" customWidth="1"/>
-    <col min="16" max="16" width="5.1640625" customWidth="1"/>
+    <col min="15" max="15" width="5.1640625" customWidth="1"/>
+    <col min="16" max="16" width="8" customWidth="1"/>
     <col min="17" max="17" width="6.1640625" customWidth="1"/>
     <col min="18" max="18" width="5.1640625" customWidth="1"/>
     <col min="19" max="19" width="6.1640625" customWidth="1"/>
-    <col min="20" max="20" width="7.1640625" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" customWidth="1"/>
     <col min="21" max="21" width="6.1640625" customWidth="1"/>
-    <col min="22" max="22" width="5.1640625" customWidth="1"/>
-    <col min="23" max="24" width="6.1640625" customWidth="1"/>
-    <col min="25" max="25" width="5.1640625" customWidth="1"/>
-    <col min="26" max="26" width="7.1640625" customWidth="1"/>
-    <col min="27" max="27" width="6.1640625" customWidth="1"/>
-    <col min="28" max="30" width="5.1640625" customWidth="1"/>
-    <col min="31" max="31" width="6.1640625" customWidth="1"/>
-    <col min="32" max="34" width="5.1640625" customWidth="1"/>
+    <col min="22" max="22" width="7.1640625" customWidth="1"/>
+    <col min="23" max="23" width="6.1640625" customWidth="1"/>
+    <col min="24" max="24" width="5.1640625" customWidth="1"/>
+    <col min="25" max="26" width="6.1640625" customWidth="1"/>
+    <col min="27" max="27" width="5.1640625" customWidth="1"/>
+    <col min="28" max="28" width="7.1640625" customWidth="1"/>
+    <col min="29" max="29" width="6.1640625" customWidth="1"/>
+    <col min="30" max="32" width="5.1640625" customWidth="1"/>
+    <col min="33" max="33" width="6.1640625" customWidth="1"/>
+    <col min="34" max="36" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,8 +731,10 @@
       <c r="AF1" s="8"/>
       <c r="AG1" s="8"/>
       <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -760,8 +785,10 @@
       <c r="AF2" s="8"/>
       <c r="AG2" s="8"/>
       <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -802,8 +829,10 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
       <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -840,48 +869,52 @@
         <v>23</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="10"/>
+      <c r="S4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="10" t="s">
+      <c r="T4" s="9"/>
+      <c r="U4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="T4" s="11"/>
-      <c r="U4" s="9" t="s">
+      <c r="V4" s="11"/>
+      <c r="W4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="12"/>
-      <c r="W4" s="10" t="s">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="10" t="s">
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="9" t="s">
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="10" t="s">
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="9" t="s">
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AH4" s="12"/>
+      <c r="AJ4" s="12"/>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:36">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
@@ -920,67 +953,73 @@
         <v>-136000</v>
       </c>
       <c r="O5" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="6">
         <v>10001</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="5">
         <v>6000</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="S5" s="7">
         <v>10051</v>
       </c>
-      <c r="R5" s="5">
+      <c r="T5" s="5">
         <v>500</v>
       </c>
-      <c r="S5" s="6">
+      <c r="U5" s="6">
         <v>10061</v>
       </c>
-      <c r="T5" s="5">
+      <c r="V5" s="5">
         <v>100000</v>
       </c>
-      <c r="U5" s="7">
+      <c r="W5" s="7">
         <v>10071</v>
       </c>
-      <c r="V5" s="5">
+      <c r="X5" s="5">
         <v>1780</v>
       </c>
-      <c r="W5" s="7">
+      <c r="Y5" s="7">
         <v>10081</v>
       </c>
-      <c r="X5" s="5">
+      <c r="Z5" s="5">
         <v>68000</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="AA5" s="7">
         <v>1009</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA5" s="7">
+      <c r="AC5" s="7">
         <v>10021</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>1000</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>1001</v>
       </c>
       <c r="AD5" s="5">
         <v>1000</v>
       </c>
       <c r="AE5" s="7">
-        <v>10041</v>
+        <v>1001</v>
       </c>
       <c r="AF5" s="5">
         <v>1000</v>
       </c>
       <c r="AG5" s="7">
-        <v>1003</v>
+        <v>10041</v>
       </c>
       <c r="AH5" s="5">
         <v>1000</v>
       </c>
+      <c r="AI5" s="7">
+        <v>1003</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:36">
       <c r="B6" s="2">
         <v>1002</v>
       </c>
@@ -1021,67 +1060,73 @@
         <v>-138000</v>
       </c>
       <c r="O6" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" s="6">
         <v>10001</v>
       </c>
-      <c r="P6" s="5">
+      <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="S6" s="7">
         <v>10051</v>
       </c>
-      <c r="R6" s="5">
+      <c r="T6" s="5">
         <v>500</v>
       </c>
-      <c r="S6" s="6">
+      <c r="U6" s="6">
         <v>10061</v>
       </c>
-      <c r="T6" s="5">
+      <c r="V6" s="5">
         <v>0</v>
       </c>
-      <c r="U6" s="7">
+      <c r="W6" s="7">
         <v>10071</v>
       </c>
-      <c r="V6" s="5">
+      <c r="X6" s="5">
         <v>500</v>
       </c>
-      <c r="W6" s="7">
+      <c r="Y6" s="7">
         <v>10081</v>
       </c>
-      <c r="X6" s="5">
+      <c r="Z6" s="5">
         <v>30000</v>
       </c>
-      <c r="Y6" s="7">
+      <c r="AA6" s="7">
         <v>1009</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="AB6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AC6" s="7">
         <v>10021</v>
       </c>
-      <c r="AB6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC6" s="7">
+      <c r="AD6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE6" s="7">
         <v>1001</v>
       </c>
-      <c r="AD6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE6" s="7">
+      <c r="AF6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG6" s="7">
         <v>10041</v>
       </c>
-      <c r="AF6" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG6" s="7">
+      <c r="AH6" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI6" s="7">
         <v>1003</v>
       </c>
-      <c r="AH6" s="5">
+      <c r="AJ6" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:36">
       <c r="B7" s="2">
         <v>1003</v>
       </c>
@@ -1122,67 +1167,73 @@
         <v>-148001</v>
       </c>
       <c r="O7" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="6">
         <v>10001</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="5">
         <v>0</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="S7" s="7">
         <v>10051</v>
       </c>
-      <c r="R7" s="5">
+      <c r="T7" s="5">
         <v>500</v>
       </c>
-      <c r="S7" s="6">
+      <c r="U7" s="6">
         <v>10061</v>
       </c>
-      <c r="T7" s="5">
+      <c r="V7" s="5">
         <v>0</v>
       </c>
-      <c r="U7" s="7">
+      <c r="W7" s="7">
         <v>10071</v>
       </c>
-      <c r="V7" s="5">
+      <c r="X7" s="5">
         <v>500</v>
       </c>
-      <c r="W7" s="7">
+      <c r="Y7" s="7">
         <v>10081</v>
       </c>
-      <c r="X7" s="5">
+      <c r="Z7" s="5">
         <v>30000</v>
       </c>
-      <c r="Y7" s="7">
+      <c r="AA7" s="7">
         <v>1009</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AC7" s="7">
         <v>10021</v>
       </c>
-      <c r="AB7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="7">
+      <c r="AD7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE7" s="7">
         <v>1001</v>
       </c>
-      <c r="AD7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE7" s="7">
+      <c r="AF7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG7" s="7">
         <v>10041</v>
       </c>
-      <c r="AF7" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG7" s="7">
+      <c r="AH7" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI7" s="7">
         <v>1003</v>
       </c>
-      <c r="AH7" s="5">
+      <c r="AJ7" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:36">
       <c r="B8" s="2">
         <v>1004</v>
       </c>
@@ -1223,67 +1274,73 @@
         <v>-58702</v>
       </c>
       <c r="O8" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="6">
         <v>10001</v>
       </c>
-      <c r="P8" s="5">
+      <c r="R8" s="5">
         <v>2000</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="S8" s="7">
         <v>10051</v>
       </c>
-      <c r="R8" s="5">
+      <c r="T8" s="5">
         <v>500</v>
       </c>
-      <c r="S8" s="6">
+      <c r="U8" s="6">
         <v>10061</v>
       </c>
-      <c r="T8" s="5">
+      <c r="V8" s="5">
         <v>10000</v>
       </c>
-      <c r="U8" s="7">
+      <c r="W8" s="7">
         <v>10071</v>
       </c>
-      <c r="V8" s="5">
+      <c r="X8" s="5">
         <v>500</v>
       </c>
-      <c r="W8" s="7">
+      <c r="Y8" s="7">
         <v>10081</v>
       </c>
-      <c r="X8" s="5">
+      <c r="Z8" s="5">
         <v>30000</v>
       </c>
-      <c r="Y8" s="7">
+      <c r="AA8" s="7">
         <v>1009</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="AB8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AC8" s="7">
         <v>10021</v>
       </c>
-      <c r="AB8" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC8" s="7">
+      <c r="AD8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE8" s="7">
         <v>1001</v>
       </c>
-      <c r="AD8" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE8" s="7">
+      <c r="AF8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="7">
         <v>10041</v>
       </c>
-      <c r="AF8" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG8" s="7">
+      <c r="AH8" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI8" s="7">
         <v>1003</v>
       </c>
-      <c r="AH8" s="5">
+      <c r="AJ8" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:36">
       <c r="B9" s="2">
         <v>1005</v>
       </c>
@@ -1324,67 +1381,73 @@
         <v>-23633</v>
       </c>
       <c r="O9" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q9" s="6">
         <v>10001</v>
       </c>
-      <c r="P9" s="5">
+      <c r="R9" s="5">
         <v>2000</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="S9" s="7">
         <v>10051</v>
       </c>
-      <c r="R9" s="5">
+      <c r="T9" s="5">
         <v>500</v>
       </c>
-      <c r="S9" s="6">
+      <c r="U9" s="6">
         <v>10061</v>
       </c>
-      <c r="T9" s="5">
+      <c r="V9" s="5">
         <v>10000</v>
       </c>
-      <c r="U9" s="7">
+      <c r="W9" s="7">
         <v>10071</v>
       </c>
-      <c r="V9" s="5">
+      <c r="X9" s="5">
         <v>500</v>
       </c>
-      <c r="W9" s="7">
+      <c r="Y9" s="7">
         <v>10081</v>
       </c>
-      <c r="X9" s="5">
+      <c r="Z9" s="5">
         <v>30000</v>
       </c>
-      <c r="Y9" s="7">
+      <c r="AA9" s="7">
         <v>1009</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="AB9" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AC9" s="7">
         <v>10021</v>
       </c>
-      <c r="AB9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC9" s="7">
+      <c r="AD9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE9" s="7">
         <v>1001</v>
       </c>
-      <c r="AD9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE9" s="7">
+      <c r="AF9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG9" s="7">
         <v>10041</v>
       </c>
-      <c r="AF9" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG9" s="7">
+      <c r="AH9" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI9" s="7">
         <v>1003</v>
       </c>
-      <c r="AH9" s="5">
+      <c r="AJ9" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:36">
       <c r="B10" s="2">
         <v>1006</v>
       </c>
@@ -1425,67 +1488,73 @@
         <v>-23634</v>
       </c>
       <c r="O10" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q10" s="6">
         <v>10001</v>
       </c>
-      <c r="P10" s="5">
+      <c r="R10" s="5">
         <v>2000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="S10" s="7">
         <v>10051</v>
       </c>
-      <c r="R10" s="5">
+      <c r="T10" s="5">
         <v>500</v>
       </c>
-      <c r="S10" s="6">
+      <c r="U10" s="6">
         <v>10061</v>
       </c>
-      <c r="T10" s="5">
+      <c r="V10" s="5">
         <v>10000</v>
       </c>
-      <c r="U10" s="7">
+      <c r="W10" s="7">
         <v>10071</v>
       </c>
-      <c r="V10" s="5">
+      <c r="X10" s="5">
         <v>500</v>
       </c>
-      <c r="W10" s="7">
+      <c r="Y10" s="7">
         <v>10081</v>
       </c>
-      <c r="X10" s="5">
+      <c r="Z10" s="5">
         <v>30000</v>
       </c>
-      <c r="Y10" s="7">
+      <c r="AA10" s="7">
         <v>1009</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="AB10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AC10" s="7">
         <v>10021</v>
       </c>
-      <c r="AB10" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="7">
+      <c r="AD10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="7">
         <v>1001</v>
       </c>
-      <c r="AD10" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE10" s="7">
+      <c r="AF10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="7">
         <v>10041</v>
       </c>
-      <c r="AF10" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG10" s="7">
+      <c r="AH10" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="7">
         <v>1003</v>
       </c>
-      <c r="AH10" s="5">
+      <c r="AJ10" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:36">
       <c r="B11" s="2">
         <v>1007</v>
       </c>
@@ -1526,67 +1595,73 @@
         <v>-40495</v>
       </c>
       <c r="O11" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="6">
         <v>10001</v>
       </c>
-      <c r="P11" s="5">
+      <c r="R11" s="5">
         <v>2000</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="S11" s="7">
         <v>10051</v>
       </c>
-      <c r="R11" s="5">
+      <c r="T11" s="5">
         <v>500</v>
       </c>
-      <c r="S11" s="6">
+      <c r="U11" s="6">
         <v>10061</v>
       </c>
-      <c r="T11" s="5">
+      <c r="V11" s="5">
         <v>10000</v>
       </c>
-      <c r="U11" s="7">
+      <c r="W11" s="7">
         <v>10071</v>
       </c>
-      <c r="V11" s="5">
+      <c r="X11" s="5">
         <v>500</v>
       </c>
-      <c r="W11" s="7">
+      <c r="Y11" s="7">
         <v>10081</v>
       </c>
-      <c r="X11" s="5">
+      <c r="Z11" s="5">
         <v>30000</v>
       </c>
-      <c r="Y11" s="7">
+      <c r="AA11" s="7">
         <v>1009</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="AB11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AC11" s="7">
         <v>10021</v>
       </c>
-      <c r="AB11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC11" s="7">
+      <c r="AD11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE11" s="7">
         <v>1001</v>
       </c>
-      <c r="AD11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE11" s="7">
+      <c r="AF11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG11" s="7">
         <v>10041</v>
       </c>
-      <c r="AF11" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG11" s="7">
+      <c r="AH11" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI11" s="7">
         <v>1003</v>
       </c>
-      <c r="AH11" s="5">
+      <c r="AJ11" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:36">
       <c r="B12" s="2">
         <v>1008</v>
       </c>
@@ -1627,67 +1702,73 @@
         <v>-87866</v>
       </c>
       <c r="O12" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q12" s="6">
         <v>10001</v>
       </c>
-      <c r="P12" s="5">
+      <c r="R12" s="5">
         <v>2000</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="S12" s="7">
         <v>10051</v>
       </c>
-      <c r="R12" s="5">
+      <c r="T12" s="5">
         <v>500</v>
       </c>
-      <c r="S12" s="6">
+      <c r="U12" s="6">
         <v>10061</v>
       </c>
-      <c r="T12" s="5">
+      <c r="V12" s="5">
         <v>10000</v>
       </c>
-      <c r="U12" s="7">
+      <c r="W12" s="7">
         <v>10071</v>
       </c>
-      <c r="V12" s="5">
+      <c r="X12" s="5">
         <v>500</v>
       </c>
-      <c r="W12" s="7">
+      <c r="Y12" s="7">
         <v>10081</v>
       </c>
-      <c r="X12" s="5">
+      <c r="Z12" s="5">
         <v>30000</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="AA12" s="7">
         <v>1009</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AC12" s="7">
         <v>10021</v>
       </c>
-      <c r="AB12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC12" s="7">
+      <c r="AD12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE12" s="7">
         <v>1001</v>
       </c>
-      <c r="AD12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE12" s="7">
+      <c r="AF12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG12" s="7">
         <v>10041</v>
       </c>
-      <c r="AF12" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG12" s="7">
+      <c r="AH12" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI12" s="7">
         <v>1003</v>
       </c>
-      <c r="AH12" s="5">
+      <c r="AJ12" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:36">
       <c r="B13" s="2">
         <v>1009</v>
       </c>
@@ -1728,67 +1809,73 @@
         <v>-141407</v>
       </c>
       <c r="O13" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q13" s="6">
         <v>10001</v>
-      </c>
-      <c r="P13" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>10051</v>
       </c>
       <c r="R13" s="5">
         <v>2000</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U13" s="6">
         <v>10061</v>
       </c>
-      <c r="T13" s="5">
+      <c r="V13" s="5">
         <v>10000</v>
       </c>
-      <c r="U13" s="7">
+      <c r="W13" s="7">
         <v>10071</v>
       </c>
-      <c r="V13" s="5">
+      <c r="X13" s="5">
         <v>500</v>
       </c>
-      <c r="W13" s="7">
+      <c r="Y13" s="7">
         <v>10081</v>
       </c>
-      <c r="X13" s="5">
+      <c r="Z13" s="5">
         <v>30000</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="AA13" s="7">
         <v>1009</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="AB13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AC13" s="7">
         <v>10021</v>
       </c>
-      <c r="AB13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC13" s="7">
+      <c r="AD13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE13" s="7">
         <v>1001</v>
       </c>
-      <c r="AD13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE13" s="7">
+      <c r="AF13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG13" s="7">
         <v>10041</v>
       </c>
-      <c r="AF13" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG13" s="7">
+      <c r="AH13" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI13" s="7">
         <v>1003</v>
       </c>
-      <c r="AH13" s="5">
+      <c r="AJ13" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:36">
       <c r="B14" s="2">
         <v>1010</v>
       </c>
@@ -1829,67 +1916,73 @@
         <v>-130408</v>
       </c>
       <c r="O14" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="6">
         <v>10001</v>
-      </c>
-      <c r="P14" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>10051</v>
       </c>
       <c r="R14" s="5">
         <v>2000</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U14" s="6">
         <v>10061</v>
       </c>
-      <c r="T14" s="5">
+      <c r="V14" s="5">
         <v>10000</v>
       </c>
-      <c r="U14" s="7">
+      <c r="W14" s="7">
         <v>10071</v>
       </c>
-      <c r="V14" s="5">
+      <c r="X14" s="5">
         <v>500</v>
       </c>
-      <c r="W14" s="7">
+      <c r="Y14" s="7">
         <v>10081</v>
       </c>
-      <c r="X14" s="5">
+      <c r="Z14" s="5">
         <v>30000</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="AA14" s="7">
         <v>1009</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="AB14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AC14" s="7">
         <v>10021</v>
       </c>
-      <c r="AB14" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC14" s="7">
+      <c r="AD14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="7">
         <v>1001</v>
       </c>
-      <c r="AD14" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE14" s="7">
+      <c r="AF14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="7">
         <v>10041</v>
       </c>
-      <c r="AF14" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG14" s="7">
+      <c r="AH14" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI14" s="7">
         <v>1003</v>
       </c>
-      <c r="AH14" s="5">
+      <c r="AJ14" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:36">
       <c r="B15" s="2">
         <v>1011</v>
       </c>
@@ -1930,67 +2023,73 @@
         <v>-130409</v>
       </c>
       <c r="O15" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q15" s="6">
         <v>10001</v>
-      </c>
-      <c r="P15" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>10051</v>
       </c>
       <c r="R15" s="5">
         <v>2000</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U15" s="6">
         <v>10061</v>
       </c>
-      <c r="T15" s="5">
+      <c r="V15" s="5">
         <v>10000</v>
       </c>
-      <c r="U15" s="7">
+      <c r="W15" s="7">
         <v>10071</v>
       </c>
-      <c r="V15" s="5">
+      <c r="X15" s="5">
         <v>500</v>
       </c>
-      <c r="W15" s="7">
+      <c r="Y15" s="7">
         <v>10081</v>
       </c>
-      <c r="X15" s="5">
+      <c r="Z15" s="5">
         <v>30000</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="AA15" s="7">
         <v>1009</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="AB15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA15" s="7">
+      <c r="AC15" s="7">
         <v>10021</v>
       </c>
-      <c r="AB15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC15" s="7">
+      <c r="AD15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="7">
         <v>1001</v>
       </c>
-      <c r="AD15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE15" s="7">
+      <c r="AF15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="7">
         <v>10041</v>
       </c>
-      <c r="AF15" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG15" s="7">
+      <c r="AH15" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI15" s="7">
         <v>1003</v>
       </c>
-      <c r="AH15" s="5">
+      <c r="AJ15" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:36">
       <c r="B16" s="2">
         <v>1012</v>
       </c>
@@ -2031,67 +2130,73 @@
         <v>-34791</v>
       </c>
       <c r="O16" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q16" s="6">
         <v>10001</v>
-      </c>
-      <c r="P16" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>10051</v>
       </c>
       <c r="R16" s="5">
         <v>2000</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U16" s="6">
         <v>10061</v>
       </c>
-      <c r="T16" s="5">
+      <c r="V16" s="5">
         <v>10000</v>
       </c>
-      <c r="U16" s="7">
+      <c r="W16" s="7">
         <v>10071</v>
       </c>
-      <c r="V16" s="5">
+      <c r="X16" s="5">
         <v>500</v>
       </c>
-      <c r="W16" s="7">
+      <c r="Y16" s="7">
         <v>10081</v>
       </c>
-      <c r="X16" s="5">
+      <c r="Z16" s="5">
         <v>30000</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="AA16" s="7">
         <v>1009</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="AB16" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA16" s="7">
+      <c r="AC16" s="7">
         <v>10021</v>
       </c>
-      <c r="AB16" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC16" s="7">
+      <c r="AD16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE16" s="7">
         <v>1001</v>
       </c>
-      <c r="AD16" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE16" s="7">
+      <c r="AF16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG16" s="7">
         <v>10041</v>
       </c>
-      <c r="AF16" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG16" s="7">
+      <c r="AH16" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI16" s="7">
         <v>1003</v>
       </c>
-      <c r="AH16" s="5">
+      <c r="AJ16" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:34">
+    <row r="17" spans="2:36">
       <c r="B17" s="2">
         <v>1013</v>
       </c>
@@ -2132,75 +2237,81 @@
         <v>-93811</v>
       </c>
       <c r="O17" s="6">
+        <v>1014</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="6">
         <v>10001</v>
-      </c>
-      <c r="P17" s="5">
-        <v>2000</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>10051</v>
       </c>
       <c r="R17" s="5">
         <v>2000</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17" s="7">
+        <v>10051</v>
+      </c>
+      <c r="T17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="U17" s="6">
         <v>10061</v>
       </c>
-      <c r="T17" s="5">
+      <c r="V17" s="5">
         <v>10000</v>
       </c>
-      <c r="U17" s="7">
+      <c r="W17" s="7">
         <v>10071</v>
       </c>
-      <c r="V17" s="5">
+      <c r="X17" s="5">
         <v>500</v>
       </c>
-      <c r="W17" s="7">
+      <c r="Y17" s="7">
         <v>10081</v>
       </c>
-      <c r="X17" s="5">
+      <c r="Z17" s="5">
         <v>30000</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="AA17" s="7">
         <v>1009</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="AB17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA17" s="7">
+      <c r="AC17" s="7">
         <v>10021</v>
       </c>
-      <c r="AB17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AC17" s="7">
+      <c r="AD17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="7">
         <v>1001</v>
       </c>
-      <c r="AD17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AE17" s="7">
+      <c r="AF17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AG17" s="7">
         <v>10041</v>
       </c>
-      <c r="AF17" s="5">
-        <v>100</v>
-      </c>
-      <c r="AG17" s="7">
+      <c r="AH17" s="5">
+        <v>100</v>
+      </c>
+      <c r="AI17" s="7">
         <v>1003</v>
       </c>
-      <c r="AH17" s="5">
+      <c r="AJ17" s="5">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I1:AH1"/>
-    <mergeCell ref="I2:AH2"/>
-    <mergeCell ref="I3:AH3"/>
+  <mergeCells count="17">
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="I1:AJ1"/>
+    <mergeCell ref="I2:AJ2"/>
+    <mergeCell ref="I3:AJ3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
@@ -2210,6 +2321,7 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241DA813-B7DD-084D-AB07-D61001BFAC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D38C0-41B9-E642-B12C-574242A24A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -149,15 +149,6 @@
     <t>法师</t>
   </si>
   <si>
-    <t>56000</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Monster</t>
   </si>
   <si>
@@ -183,9 +174,6 @@
   </si>
   <si>
     <t>德鲁伊</t>
-  </si>
-  <si>
-    <t>300000</t>
   </si>
   <si>
     <t>猎人</t>
@@ -242,11 +230,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
+    <t>Map2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>180</t>
+    <t>Virtual</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -329,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -350,6 +338,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,8 +352,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,7 +633,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -694,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
@@ -703,36 +694,36 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
@@ -748,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
@@ -757,36 +748,36 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
@@ -801,36 +792,36 @@
         <v>13</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
@@ -846,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>18</v>
@@ -857,69 +848,69 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="10" t="s">
+      <c r="N4" s="10"/>
+      <c r="O4" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="10" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="11"/>
-      <c r="W4" s="9" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="10" t="s">
+      <c r="X4" s="13"/>
+      <c r="Y4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="9" t="s">
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="10" t="s">
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="9" t="s">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="10" t="s">
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="9" t="s">
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="12"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5" spans="1:36">
       <c r="B5" s="2">
         <v>1001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>34</v>
@@ -937,26 +928,26 @@
       <c r="I5" s="2">
         <v>1010</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="5">
-        <v>29000</v>
+      <c r="J5" s="14">
+        <v>3000</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1011</v>
+      </c>
+      <c r="L5" s="14">
+        <v>25200</v>
       </c>
       <c r="M5" s="6">
         <v>1012</v>
       </c>
-      <c r="N5" s="5">
-        <v>-136000</v>
+      <c r="N5" s="14">
+        <v>3000</v>
       </c>
       <c r="O5" s="6">
         <v>1014</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>67</v>
+      <c r="P5" s="14">
+        <v>0</v>
       </c>
       <c r="Q5" s="6">
         <v>10001</v>
@@ -991,8 +982,8 @@
       <c r="AA5" s="7">
         <v>1009</v>
       </c>
-      <c r="AB5" s="5" t="s">
-        <v>40</v>
+      <c r="AB5" s="14">
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
         <v>10021</v>
@@ -1024,46 +1015,46 @@
         <v>1002</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="I6" s="2">
         <v>1010</v>
       </c>
-      <c r="J6" s="5">
-        <v>56000</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="5">
-        <v>30000</v>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>1011</v>
+      </c>
+      <c r="L6" s="14">
+        <v>25200</v>
       </c>
       <c r="M6" s="6">
         <v>1012</v>
       </c>
-      <c r="N6" s="5">
-        <v>-138000</v>
+      <c r="N6" s="14">
+        <v>0</v>
       </c>
       <c r="O6" s="6">
         <v>1014</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>67</v>
+      <c r="P6" s="14">
+        <v>90</v>
       </c>
       <c r="Q6" s="6">
         <v>10001</v>
@@ -1098,8 +1089,8 @@
       <c r="AA6" s="7">
         <v>1009</v>
       </c>
-      <c r="AB6" s="5" t="s">
-        <v>40</v>
+      <c r="AB6" s="14">
+        <v>300003</v>
       </c>
       <c r="AC6" s="7">
         <v>10021</v>
@@ -1131,46 +1122,46 @@
         <v>1003</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="I7" s="2">
         <v>1010</v>
       </c>
-      <c r="J7" s="5">
-        <v>58740</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="5">
-        <v>29090</v>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>1011</v>
+      </c>
+      <c r="L7" s="14">
+        <v>25200</v>
       </c>
       <c r="M7" s="6">
         <v>1012</v>
       </c>
-      <c r="N7" s="5">
-        <v>-148001</v>
+      <c r="N7" s="14">
+        <v>0</v>
       </c>
       <c r="O7" s="6">
         <v>1014</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>68</v>
+      <c r="P7" s="14">
+        <v>270</v>
       </c>
       <c r="Q7" s="6">
         <v>10001</v>
@@ -1205,8 +1196,8 @@
       <c r="AA7" s="7">
         <v>1009</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>40</v>
+      <c r="AB7" s="14">
+        <v>300003</v>
       </c>
       <c r="AC7" s="7">
         <v>10021</v>
@@ -1238,22 +1229,22 @@
         <v>1004</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2">
         <v>1010</v>
@@ -1261,8 +1252,8 @@
       <c r="J8" s="5">
         <v>21600</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>39</v>
+      <c r="K8" s="14">
+        <v>1011</v>
       </c>
       <c r="L8" s="5">
         <v>26800</v>
@@ -1276,8 +1267,8 @@
       <c r="O8" s="6">
         <v>1014</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>67</v>
+      <c r="P8" s="14">
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <v>10001</v>
@@ -1312,8 +1303,8 @@
       <c r="AA8" s="7">
         <v>1009</v>
       </c>
-      <c r="AB8" s="5" t="s">
-        <v>50</v>
+      <c r="AB8" s="14">
+        <v>300000</v>
       </c>
       <c r="AC8" s="7">
         <v>10021</v>
@@ -1345,22 +1336,22 @@
         <v>1005</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="H9" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="I9" s="2">
         <v>1010</v>
@@ -1368,8 +1359,8 @@
       <c r="J9" s="5">
         <v>56000</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>39</v>
+      <c r="K9" s="14">
+        <v>1011</v>
       </c>
       <c r="L9" s="5">
         <v>25180</v>
@@ -1383,8 +1374,8 @@
       <c r="O9" s="6">
         <v>1014</v>
       </c>
-      <c r="P9" s="5" t="s">
-        <v>67</v>
+      <c r="P9" s="14">
+        <v>0</v>
       </c>
       <c r="Q9" s="6">
         <v>10001</v>
@@ -1419,8 +1410,8 @@
       <c r="AA9" s="7">
         <v>1009</v>
       </c>
-      <c r="AB9" s="5" t="s">
-        <v>50</v>
+      <c r="AB9" s="14">
+        <v>300000</v>
       </c>
       <c r="AC9" s="7">
         <v>10021</v>
@@ -1452,19 +1443,19 @@
         <v>1006</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>37</v>
@@ -1475,8 +1466,8 @@
       <c r="J10" s="5">
         <v>36310</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>39</v>
+      <c r="K10" s="14">
+        <v>1011</v>
       </c>
       <c r="L10" s="5">
         <v>25180</v>
@@ -1490,8 +1481,8 @@
       <c r="O10" s="6">
         <v>1014</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>67</v>
+      <c r="P10" s="14">
+        <v>0</v>
       </c>
       <c r="Q10" s="6">
         <v>10001</v>
@@ -1526,8 +1517,8 @@
       <c r="AA10" s="7">
         <v>1009</v>
       </c>
-      <c r="AB10" s="5" t="s">
-        <v>50</v>
+      <c r="AB10" s="14">
+        <v>300000</v>
       </c>
       <c r="AC10" s="7">
         <v>10021</v>
@@ -1559,22 +1550,22 @@
         <v>1007</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="I11" s="2">
         <v>1010</v>
@@ -1582,8 +1573,8 @@
       <c r="J11" s="5">
         <v>67170</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>39</v>
+      <c r="K11" s="14">
+        <v>1011</v>
       </c>
       <c r="L11" s="5">
         <v>25180</v>
@@ -1597,8 +1588,8 @@
       <c r="O11" s="6">
         <v>1014</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>67</v>
+      <c r="P11" s="14">
+        <v>0</v>
       </c>
       <c r="Q11" s="6">
         <v>10001</v>
@@ -1633,8 +1624,8 @@
       <c r="AA11" s="7">
         <v>1009</v>
       </c>
-      <c r="AB11" s="5" t="s">
-        <v>50</v>
+      <c r="AB11" s="14">
+        <v>300000</v>
       </c>
       <c r="AC11" s="7">
         <v>10021</v>
@@ -1666,22 +1657,22 @@
         <v>1008</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="I12" s="2">
         <v>1010</v>
@@ -1689,8 +1680,8 @@
       <c r="J12" s="5">
         <v>59600</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>39</v>
+      <c r="K12" s="14">
+        <v>1011</v>
       </c>
       <c r="L12" s="5">
         <v>25800</v>
@@ -1704,8 +1695,8 @@
       <c r="O12" s="6">
         <v>1014</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>67</v>
+      <c r="P12" s="14">
+        <v>0</v>
       </c>
       <c r="Q12" s="6">
         <v>10001</v>
@@ -1740,8 +1731,8 @@
       <c r="AA12" s="7">
         <v>1009</v>
       </c>
-      <c r="AB12" s="5" t="s">
-        <v>50</v>
+      <c r="AB12" s="14">
+        <v>300000</v>
       </c>
       <c r="AC12" s="7">
         <v>10021</v>
@@ -1773,22 +1764,22 @@
         <v>1009</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I13" s="2">
         <v>1010</v>
@@ -1796,8 +1787,8 @@
       <c r="J13" s="5">
         <v>58740</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>39</v>
+      <c r="K13" s="14">
+        <v>1011</v>
       </c>
       <c r="L13" s="5">
         <v>28100</v>
@@ -1811,8 +1802,8 @@
       <c r="O13" s="6">
         <v>1014</v>
       </c>
-      <c r="P13" s="5" t="s">
-        <v>67</v>
+      <c r="P13" s="14">
+        <v>0</v>
       </c>
       <c r="Q13" s="6">
         <v>10001</v>
@@ -1847,8 +1838,8 @@
       <c r="AA13" s="7">
         <v>1009</v>
       </c>
-      <c r="AB13" s="5" t="s">
-        <v>50</v>
+      <c r="AB13" s="14">
+        <v>300000</v>
       </c>
       <c r="AC13" s="7">
         <v>10021</v>
@@ -1880,22 +1871,22 @@
         <v>1010</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I14" s="2">
         <v>1010</v>
@@ -1903,8 +1894,8 @@
       <c r="J14" s="5">
         <v>58740</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>39</v>
+      <c r="K14" s="14">
+        <v>1011</v>
       </c>
       <c r="L14" s="5">
         <v>28100</v>
@@ -1918,8 +1909,8 @@
       <c r="O14" s="6">
         <v>1014</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>67</v>
+      <c r="P14" s="14">
+        <v>0</v>
       </c>
       <c r="Q14" s="6">
         <v>10001</v>
@@ -1954,8 +1945,8 @@
       <c r="AA14" s="7">
         <v>1009</v>
       </c>
-      <c r="AB14" s="5" t="s">
-        <v>50</v>
+      <c r="AB14" s="14">
+        <v>300000</v>
       </c>
       <c r="AC14" s="7">
         <v>10021</v>
@@ -1987,22 +1978,22 @@
         <v>1011</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="I15" s="2">
         <v>1010</v>
@@ -2010,8 +2001,8 @@
       <c r="J15" s="5">
         <v>67480</v>
       </c>
-      <c r="K15" s="5" t="s">
-        <v>39</v>
+      <c r="K15" s="14">
+        <v>1011</v>
       </c>
       <c r="L15" s="5">
         <v>28850</v>
@@ -2025,8 +2016,8 @@
       <c r="O15" s="6">
         <v>1014</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>67</v>
+      <c r="P15" s="14">
+        <v>0</v>
       </c>
       <c r="Q15" s="6">
         <v>10001</v>
@@ -2061,8 +2052,8 @@
       <c r="AA15" s="7">
         <v>1009</v>
       </c>
-      <c r="AB15" s="5" t="s">
-        <v>50</v>
+      <c r="AB15" s="14">
+        <v>300000</v>
       </c>
       <c r="AC15" s="7">
         <v>10021</v>
@@ -2094,22 +2085,22 @@
         <v>1012</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="I16" s="2">
         <v>1010</v>
@@ -2117,8 +2108,8 @@
       <c r="J16" s="5">
         <v>67480</v>
       </c>
-      <c r="K16" s="5" t="s">
-        <v>39</v>
+      <c r="K16" s="14">
+        <v>1011</v>
       </c>
       <c r="L16" s="5">
         <v>27510</v>
@@ -2132,8 +2123,8 @@
       <c r="O16" s="6">
         <v>1014</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>67</v>
+      <c r="P16" s="14">
+        <v>0</v>
       </c>
       <c r="Q16" s="6">
         <v>10001</v>
@@ -2168,8 +2159,8 @@
       <c r="AA16" s="7">
         <v>1009</v>
       </c>
-      <c r="AB16" s="5" t="s">
-        <v>50</v>
+      <c r="AB16" s="14">
+        <v>300000</v>
       </c>
       <c r="AC16" s="7">
         <v>10021</v>
@@ -2201,22 +2192,22 @@
         <v>1013</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I17" s="2">
         <v>1010</v>
@@ -2224,8 +2215,8 @@
       <c r="J17" s="5">
         <v>67480</v>
       </c>
-      <c r="K17" s="5" t="s">
-        <v>39</v>
+      <c r="K17" s="14">
+        <v>1011</v>
       </c>
       <c r="L17" s="5">
         <v>25900</v>
@@ -2239,8 +2230,8 @@
       <c r="O17" s="6">
         <v>1014</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>67</v>
+      <c r="P17" s="14">
+        <v>0</v>
       </c>
       <c r="Q17" s="6">
         <v>10001</v>
@@ -2275,8 +2266,8 @@
       <c r="AA17" s="7">
         <v>1009</v>
       </c>
-      <c r="AB17" s="5" t="s">
-        <v>50</v>
+      <c r="AB17" s="14">
+        <v>300000</v>
       </c>
       <c r="AC17" s="7">
         <v>10021</v>
@@ -2305,6 +2296,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="I1:AJ1"/>
     <mergeCell ref="I2:AJ2"/>
@@ -2321,7 +2313,6 @@
     <mergeCell ref="AC4:AD4"/>
     <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Unit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275D38C0-41B9-E642-B12C-574242A24A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F70B3-E7A0-C044-937D-BDE54D7498DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -633,7 +633,7 @@
   <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -929,7 +929,7 @@
         <v>1010</v>
       </c>
       <c r="J5" s="14">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="14">
         <v>1011</v>
@@ -941,7 +941,7 @@
         <v>1012</v>
       </c>
       <c r="N5" s="14">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="O5" s="6">
         <v>1014</v>
@@ -1048,7 +1048,7 @@
         <v>1012</v>
       </c>
       <c r="N6" s="14">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="O6" s="6">
         <v>1014</v>
